--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W15_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W15_H100_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.551829268292683</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.5531914893617021</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9945054945054945</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5501519756838906</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7098039215686275</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4711246200607903</v>
+        <v>0.4832826747720365</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.06946616190189027</v>
+        <v>0.07842212880444166</v>
       </c>
       <c r="J2" t="n">
-        <v>887.5338045277728</v>
+        <v>1037.839781918476</v>
       </c>
       <c r="K2" t="n">
-        <v>1071387.151488633</v>
+        <v>1475087.397570551</v>
       </c>
       <c r="L2" t="n">
-        <v>1035.078331088345</v>
+        <v>1214.531760626518</v>
       </c>
       <c r="M2" t="n">
-        <v>0.798555757647888</v>
+        <v>0.7226512724239059</v>
       </c>
     </row>
   </sheetData>
